--- a/Stocks/SKFINDIA.xlsx
+++ b/Stocks/SKFINDIA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1686.3333333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1564.6767067469282</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1533.1173131990822</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>74.904414716019346</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>44.599999999999909</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>48.700000000000045</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.91581108829568514</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>UP</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1567.2687825240778</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-7.5010701439671266</v>
       </c>
       <c r="Y67">
         <v>-10.755410035950231</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>UP</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1530</v>
+      </c>
+      <c r="D83">
+        <v>1537.95</v>
+      </c>
+      <c r="E83">
+        <v>1508.9</v>
+      </c>
+      <c r="F83">
+        <v>1513</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1519.95</v>
+      </c>
+      <c r="H83">
+        <v>1531.5757564805108</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>1557.97905980477</v>
+      </c>
+      <c r="K83">
+        <v>1522.824238390127</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N83">
+        <v>30.272678139153207</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>4.0999999999999091</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>29.049999999999955</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.14113597246127077</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V83">
+        <v>1542.0868557307019</v>
+      </c>
+      <c r="W83">
+        <v>1549.7866311050657</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-7.6997753743637531</v>
+      </c>
+      <c r="Y83">
+        <v>-6.9543888764987427</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1515.05</v>
+      </c>
+      <c r="D84">
+        <v>1526.15</v>
+      </c>
+      <c r="E84">
+        <v>1489.95</v>
+      </c>
+      <c r="F84">
+        <v>1505</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1507.0333333333335</v>
+      </c>
+      <c r="H84">
+        <v>1519.3045449069223</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1550.9059354037101</v>
+      </c>
+      <c r="K84">
+        <v>1515.5188520812098</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>27.114343264941436</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>15.049999999999955</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>36.200000000000045</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.4157458563535894</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1536.3811856182863</v>
+      </c>
+      <c r="W84">
+        <v>1546.4691028750608</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-10.087917256774517</v>
+      </c>
+      <c r="Y84">
+        <v>-7.581094552553898</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1514.9</v>
+      </c>
+      <c r="D85">
+        <v>1537.85</v>
+      </c>
+      <c r="E85">
+        <v>1505</v>
+      </c>
+      <c r="F85">
+        <v>1507.15</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1516.6666666666667</v>
+      </c>
+      <c r="H85">
+        <v>1517.9856057867946</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>1548.0046164251078</v>
+      </c>
+      <c r="K85">
+        <v>1513.1813293964965</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N85">
+        <v>29.582355519444707</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>2.1500000000000909</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>32.849999999999909</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>6.5449010654493059E-2</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V85">
+        <v>1531.88408013855</v>
+      </c>
+      <c r="W85">
+        <v>1543.5565767361675</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-11.67249659761751</v>
+      </c>
+      <c r="Y85">
+        <v>-8.39937496156662</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1535</v>
+      </c>
+      <c r="D86">
+        <v>1535</v>
+      </c>
+      <c r="E86">
+        <v>1498</v>
+      </c>
+      <c r="F86">
+        <v>1503.15</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1512.05</v>
+      </c>
+      <c r="H86">
+        <v>1515.0178028933974</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>1545.1147016639727</v>
+      </c>
+      <c r="K86">
+        <v>1509.8077006417195</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N86">
+        <v>27.422872795511694</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>5.1500000000000909</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>37</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.13918918918919165</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V86">
+        <v>1527.4634524249268</v>
+      </c>
+      <c r="W86">
+        <v>1540.5634969779328</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-13.100044553006001</v>
+      </c>
+      <c r="Y86">
+        <v>-9.3395088798544954</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1515.9</v>
+      </c>
+      <c r="D87">
+        <v>1529.95</v>
+      </c>
+      <c r="E87">
+        <v>1504</v>
+      </c>
+      <c r="F87">
+        <v>1525.9</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1519.95</v>
+      </c>
+      <c r="H87">
+        <v>1517.4839014466988</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1541.7447679608676</v>
+      </c>
+      <c r="K87">
+        <v>1508.5171004991153</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>52.219743646416298</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>21.900000000000091</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>25.950000000000045</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.84393063583815231</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1527.2229212826303</v>
+      </c>
+      <c r="W87">
+        <v>1539.4773120166044</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-12.254390733974105</v>
+      </c>
+      <c r="Y87">
+        <v>-9.9224852506784167</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1526.25</v>
+      </c>
+      <c r="D88">
+        <v>1527.2</v>
+      </c>
+      <c r="E88">
+        <v>1513.05</v>
+      </c>
+      <c r="F88">
+        <v>1518.6</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1519.6166666666668</v>
+      </c>
+      <c r="H88">
+        <v>1518.5502840566828</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>1538.5125973028971</v>
+      </c>
+      <c r="K88">
+        <v>1509.5244114993118</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>45.926023571464484</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>5.5499999999999545</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>14.150000000000091</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.39222614840988823</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1525.8963180083795</v>
+      </c>
+      <c r="W88">
+        <v>1537.9308444598189</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-12.034526451439433</v>
+      </c>
+      <c r="Y88">
+        <v>-10.34489349083062</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1516.95</v>
+      </c>
+      <c r="D89">
+        <v>1526.45</v>
+      </c>
+      <c r="E89">
+        <v>1508.5</v>
+      </c>
+      <c r="F89">
+        <v>1525</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1519.9833333333333</v>
+      </c>
+      <c r="H89">
+        <v>1519.266808695008</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1535.8320201244755</v>
+      </c>
+      <c r="K89">
+        <v>1509.2967644994646</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>52.234880555181171</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>16.5</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>17.950000000000045</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.91922005571030407</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1525.7584229301672</v>
+      </c>
+      <c r="W89">
+        <v>1536.973004129462</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-11.214581199294798</v>
+      </c>
+      <c r="Y89">
+        <v>-10.518831032523455</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1510.45</v>
+      </c>
+      <c r="D90">
+        <v>1589.8</v>
+      </c>
+      <c r="E90">
+        <v>1510.45</v>
+      </c>
+      <c r="F90">
+        <v>1544</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1548.0833333333333</v>
+      </c>
+      <c r="H90">
+        <v>1533.6750710141705</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1547.8249045412588</v>
+      </c>
+      <c r="K90">
+        <v>1509.5530390551392</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>66.666775117827285</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>33.549999999999955</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>79.349999999999909</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.42281033396345297</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1528.5648194024491</v>
+      </c>
+      <c r="W90">
+        <v>1537.4935223420944</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-8.9287029396452908</v>
+      </c>
+      <c r="Y90">
+        <v>-10.200805413947823</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1588.9</v>
+      </c>
+      <c r="D91">
+        <v>1604.9</v>
+      </c>
+      <c r="E91">
+        <v>1574.1</v>
+      </c>
+      <c r="F91">
+        <v>1578</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1585.6666666666667</v>
+      </c>
+      <c r="H91">
+        <v>1559.6708688404187</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1560.5082590876457</v>
+      </c>
+      <c r="K91">
+        <v>1523.8968081539972</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>80.109614482344895</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>3.9000000000000909</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>30.800000000000182</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.12662337662337883</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1536.1702318020723</v>
+      </c>
+      <c r="W91">
+        <v>1540.4940021686059</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-4.3237703665336085</v>
+      </c>
+      <c r="Y91">
+        <v>-9.0253984044649798</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1599</v>
+      </c>
+      <c r="D92">
+        <v>1600.05</v>
+      </c>
+      <c r="E92">
+        <v>1572</v>
+      </c>
+      <c r="F92">
+        <v>1579.9</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1583.9833333333336</v>
+      </c>
+      <c r="H92">
+        <v>1571.8271010868762</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>1569.2953126237244</v>
+      </c>
+      <c r="K92">
+        <v>1534.5864063419979</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>80.654589169533537</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>7.9000000000000909</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>28.049999999999955</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.28163992869875593</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1542.8978884479072</v>
+      </c>
+      <c r="W92">
+        <v>1543.4129649709314</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-0.51507652302416318</v>
+      </c>
+      <c r="Y92">
+        <v>-7.3233340281768164</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1592.5</v>
+      </c>
+      <c r="D93">
+        <v>1598</v>
+      </c>
+      <c r="E93">
+        <v>1562.3</v>
+      </c>
+      <c r="F93">
+        <v>1563.1</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1574.4666666666665</v>
+      </c>
+      <c r="H93">
+        <v>1573.1468838767714</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>1575.6741320406745</v>
+      </c>
+      <c r="K93">
+        <v>1540.7449827104429</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>61.907226813822248</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>0.79999999999995453</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>35.700000000000045</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>2.2408963585432873E-2</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1546.0059056097678</v>
+      </c>
+      <c r="W93">
+        <v>1544.8712638619736</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>1.1346417477941486</v>
+      </c>
+      <c r="Y93">
+        <v>-5.6317388729826234</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1567.6</v>
+      </c>
+      <c r="D94">
+        <v>1572.8</v>
+      </c>
+      <c r="E94">
+        <v>1555.9</v>
+      </c>
+      <c r="F94">
+        <v>1563</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1563.8999999999999</v>
+      </c>
+      <c r="H94">
+        <v>1568.5234419383855</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>1575.0354360316358</v>
+      </c>
+      <c r="K94">
+        <v>1544.1127643303444</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>61.800345268823875</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>7.0999999999999091</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>16.899999999999864</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.42011834319526425</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1548.6203816698035</v>
+      </c>
+      <c r="W94">
+        <v>1546.2141332055312</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>2.4062484642722666</v>
+      </c>
+      <c r="Y94">
+        <v>-4.0241414055316458</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1576.85</v>
+      </c>
+      <c r="D95">
+        <v>1576.85</v>
+      </c>
+      <c r="E95">
+        <v>1555.05</v>
+      </c>
+      <c r="F95">
+        <v>1564.95</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1565.6166666666666</v>
+      </c>
+      <c r="H95">
+        <v>1567.0700543025259</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>1575.4386724690501</v>
+      </c>
+      <c r="K95">
+        <v>1546.5432611458234</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>63.342980167243667</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>9.9000000000000909</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>21.799999999999955</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.45412844036697758</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1551.1326306436799</v>
+      </c>
+      <c r="W95">
+        <v>1547.6019751903066</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>3.5306554533733561</v>
+      </c>
+      <c r="Y95">
+        <v>-2.5131820337506454</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1564</v>
+      </c>
+      <c r="D96">
+        <v>1574.4</v>
+      </c>
+      <c r="E96">
+        <v>1535.05</v>
+      </c>
+      <c r="F96">
+        <v>1550</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1553.1499999999999</v>
+      </c>
+      <c r="H96">
+        <v>1560.1100271512628</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>1575.2078563648167</v>
+      </c>
+      <c r="K96">
+        <v>1543.9892031134182</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>45.668781481430045</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>14.950000000000045</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>39.350000000000136</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.37992376111817011</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1550.9583797754215</v>
+      </c>
+      <c r="W96">
+        <v>1547.7796066576914</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>3.1787731177300884</v>
+      </c>
+      <c r="Y96">
+        <v>-1.3747910034544986</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1545</v>
+      </c>
+      <c r="D97">
+        <v>1554.9</v>
+      </c>
+      <c r="E97">
+        <v>1535.05</v>
+      </c>
+      <c r="F97">
+        <v>1549.8</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1546.5833333333333</v>
+      </c>
+      <c r="H97">
+        <v>1553.3466802422981</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1570.6949993948574</v>
+      </c>
+      <c r="K97">
+        <v>1542.0027135326586</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>45.456682883655915</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>14.75</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>19.850000000000136</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.74307304785893691</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1550.7801675022797</v>
+      </c>
+      <c r="W97">
+        <v>1547.9292654237884</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>2.8509020784913446</v>
+      </c>
+      <c r="Y97">
+        <v>-0.5296523870653298</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1550</v>
+      </c>
+      <c r="D98">
+        <v>1574.55</v>
+      </c>
+      <c r="E98">
+        <v>1550</v>
+      </c>
+      <c r="F98">
+        <v>1556.1</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1560.2166666666665</v>
+      </c>
+      <c r="H98">
+        <v>1556.7816734544822</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>1571.5516661960003</v>
+      </c>
+      <c r="K98">
+        <v>1543.779888303179</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>53.888943370844622</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>6.0999999999999091</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>24.549999999999955</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.24847250509164645</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1551.5986032711598</v>
+      </c>
+      <c r="W98">
+        <v>1548.5345050220262</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>3.0640982491336217</v>
+      </c>
+      <c r="Y98">
+        <v>0.18909774017446046</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1574.5</v>
+      </c>
+      <c r="D99">
+        <v>1575</v>
+      </c>
+      <c r="E99">
+        <v>1532.15</v>
+      </c>
+      <c r="F99">
+        <v>1544.05</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1550.3999999999999</v>
+      </c>
+      <c r="H99">
+        <v>1553.5908367272409</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>1572.3179625968892</v>
+      </c>
+      <c r="K99">
+        <v>1541.1954686802503</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>39.345822674465161</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>11.899999999999864</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>42.849999999999909</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.27771295215869052</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1550.4372796909813</v>
+      </c>
+      <c r="W99">
+        <v>1548.2023194648391</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>2.2349602261422206</v>
+      </c>
+      <c r="Y99">
+        <v>0.59827023736801244</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1549.8</v>
+      </c>
+      <c r="D100">
+        <v>1620</v>
+      </c>
+      <c r="E100">
+        <v>1542.6</v>
+      </c>
+      <c r="F100">
+        <v>1598.5</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1587.0333333333335</v>
+      </c>
+      <c r="H100">
+        <v>1570.3120850302871</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>1582.9139709086917</v>
+      </c>
+      <c r="K100">
+        <v>1541.5075867513058</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>75.972161029836769</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>55.900000000000091</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>77.400000000000091</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.72222222222222254</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1557.8315443539072</v>
+      </c>
+      <c r="W100">
+        <v>1551.9280735785546</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>5.9034707753526163</v>
+      </c>
+      <c r="Y100">
+        <v>1.6593103449649331</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1588</v>
+      </c>
+      <c r="D101">
+        <v>1618</v>
+      </c>
+      <c r="E101">
+        <v>1578.7</v>
+      </c>
+      <c r="F101">
+        <v>1610</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1602.2333333333333</v>
+      </c>
+      <c r="H101">
+        <v>1586.2727091818101</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>1590.7108662623157</v>
+      </c>
+      <c r="K101">
+        <v>1549.7725674732378</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>79.27598338559622</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>31.299999999999955</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>39.299999999999955</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.79643765903307862</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1565.8574606071522</v>
+      </c>
+      <c r="W101">
+        <v>1556.229697757921</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>9.6277628492312033</v>
+      </c>
+      <c r="Y101">
+        <v>3.2530008458181872</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1605</v>
+      </c>
+      <c r="D102">
+        <v>1605</v>
+      </c>
+      <c r="E102">
+        <v>1562.5</v>
+      </c>
+      <c r="F102">
+        <v>1575</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1580.8333333333333</v>
+      </c>
+      <c r="H102">
+        <v>1583.5530212575718</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1593.8862293151344</v>
+      </c>
+      <c r="K102">
+        <v>1552.6008858125183</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>52.049203521268907</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>12.5</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>42.5</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>1567.2640051291289</v>
+      </c>
+      <c r="W102">
+        <v>1557.6200905165936</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>9.6439146125353545</v>
+      </c>
+      <c r="Y102">
+        <v>4.5311835991616203</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1598.35</v>
+      </c>
+      <c r="D103">
+        <v>1598.4</v>
+      </c>
+      <c r="E103">
+        <v>1516</v>
+      </c>
+      <c r="F103">
+        <v>1549</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1554.4666666666665</v>
+      </c>
+      <c r="H103">
+        <v>1569.0098439621192</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1594.8892894673268</v>
+      </c>
+      <c r="K103">
+        <v>1544.4673556319588</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>39.463762309785992</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>33</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>82.400000000000091</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.40048543689320343</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1564.4541581861861</v>
+      </c>
+      <c r="W103">
+        <v>1556.9815652931422</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>7.4725928930438386</v>
+      </c>
+      <c r="Y103">
+        <v>5.1194654579380643</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1530.3</v>
+      </c>
+      <c r="D104">
+        <v>1585.95</v>
+      </c>
+      <c r="E104">
+        <v>1530.3</v>
+      </c>
+      <c r="F104">
+        <v>1562</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1559.4166666666667</v>
+      </c>
+      <c r="H104">
+        <v>1564.2132553143929</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1592.9027806968097</v>
+      </c>
+      <c r="K104">
+        <v>1541.3190543804124</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>47.411208010141578</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>31.700000000000045</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>55.650000000000091</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.56963162623539976</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1564.0765953883113</v>
+      </c>
+      <c r="W104">
+        <v>1557.3533011973539</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>6.7232941909574038</v>
+      </c>
+      <c r="Y104">
+        <v>5.4402312045419325</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
